--- a/client/test2.xlsx
+++ b/client/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\SeatShuffler\client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1CC99-2D42-4D73-8CF5-1A35BFC62E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193CB5AD-B27E-4D27-946A-704D55BB218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="5690" windowWidth="26140" windowHeight="15190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>114-514班座位排布</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +40,6 @@
   </si>
   <si>
     <t>桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +408,10 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -452,9 +444,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -512,9 +502,7 @@
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
